--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD4F91-C3BD-47EA-9B52-EEB82B692BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CFC444-06C3-4EA4-A69C-50F5254C5306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,225 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>% Change vs Last Year</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2019-02-01</t>
-  </si>
-  <si>
-    <t>2019-03-01</t>
-  </si>
-  <si>
-    <t>2019-04-01</t>
-  </si>
-  <si>
-    <t>2019-05-01</t>
-  </si>
-  <si>
-    <t>2019-06-01</t>
-  </si>
-  <si>
-    <t>2019-07-01</t>
-  </si>
-  <si>
-    <t>2019-08-01</t>
-  </si>
-  <si>
-    <t>2019-09-01</t>
-  </si>
-  <si>
-    <t>2019-10-01</t>
-  </si>
-  <si>
-    <t>2019-11-01</t>
-  </si>
-  <si>
-    <t>2019-12-01</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2020-02-01</t>
-  </si>
-  <si>
-    <t>2020-03-01</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2020-05-01</t>
-  </si>
-  <si>
-    <t>2020-06-01</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>2020-08-01</t>
-  </si>
-  <si>
-    <t>2020-09-01</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>2020-11-01</t>
-  </si>
-  <si>
-    <t>2020-12-01</t>
-  </si>
-  <si>
-    <t>2021-01-01</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>2021-03-01</t>
-  </si>
-  <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
-    <t>2021-05-01</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>2021-07-01</t>
-  </si>
-  <si>
-    <t>2021-08-01</t>
-  </si>
-  <si>
-    <t>2021-09-01</t>
-  </si>
-  <si>
-    <t>2021-10-01</t>
-  </si>
-  <si>
-    <t>2021-11-01</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>2022-07-01</t>
-  </si>
-  <si>
-    <t>2022-08-01</t>
-  </si>
-  <si>
-    <t>2022-09-01</t>
-  </si>
-  <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
-    <t>2022-11-01</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>2023-07-01</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>2024-06-01</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>2024-08-01</t>
-  </si>
-  <si>
-    <t>2024-09-01</t>
-  </si>
-  <si>
-    <t>2024-10-01</t>
-  </si>
-  <si>
-    <t>2024-11-01</t>
   </si>
   <si>
     <t>Value</t>
@@ -261,10 +48,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,11 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,827 +407,840 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>72</v>
+      <c r="A2" s="2">
+        <v>45657</v>
       </c>
       <c r="B2">
-        <v>71869129</v>
+        <v>77307984</v>
       </c>
       <c r="C2" s="1">
         <f>(B2/B14-1)*100</f>
+        <v>6.5403859367984429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B3">
+        <v>71869129</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(B3/B15-1)*100</f>
         <v>0.22487208448700446</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B4">
         <v>76321249</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C60" si="0">(B3/B15-1)*100</f>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C61" si="0">(B4/B16-1)*100</f>
         <v>0.78195321604515033</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B5">
         <v>71770210</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>2.2168646708501161</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B6">
         <v>79493447</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>5.4765063757776788</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B7">
         <v>84029018</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>5.237472076457772</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B8">
         <v>82011371</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6.2926545447457016</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B9">
         <v>80316911</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7.7186419804812445</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B10">
         <v>73821334</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>5.1332466476815108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B11">
         <v>77167666</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>7.2973348994184617</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B12">
         <v>64600292</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10.690612056346405</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B13">
         <v>64447237</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>5.8127339370286579</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B14">
         <v>72562140</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>9.7241688934199377</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B15">
         <v>71707878</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>10.648320361718856</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B16">
         <v>75729083</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>11.707148251017042</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B17">
         <v>70213668</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>10.441037185509771</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B18">
         <v>75366022</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>11.149065326684159</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B19">
         <v>79847051</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>12.335686284264202</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B20">
         <v>77156198</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>12.209408431381918</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B21">
         <v>74561756</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>10.363712247666435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B22">
         <v>70216926</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>10.149733643083803</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B23">
         <v>71919462</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>12.53835635374374</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B24">
         <v>58361130</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>19.815805858300518</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B25">
         <v>60906882</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>31.844213335940186</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B26">
         <v>66131410</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>11.445680699849792</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B27">
         <v>64807019</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>11.731408234968054</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B28">
         <v>67792513</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>17.573713635771515</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B29">
         <v>63575705</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>24.018942042275061</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B30">
         <v>67806258</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>17.301882215248842</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B31">
         <v>71078972</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>11.345126542245509</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B32">
         <v>68760899</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>20.095830538964378</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B33">
         <v>67560029</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>34.311612229898046</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B34">
         <v>63746796</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>51.4628086655337</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B35">
         <v>63906622</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>67.537207101771884</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B36">
         <v>48709041</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>97.735367873171143</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B37">
         <v>46196098</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>85.353285718659151</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B38">
         <v>59339590</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>113.56654308346079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B39">
         <v>58002508</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>121.21358781559425</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B40">
         <v>57659583</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>114.56472220849503</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B41">
         <v>51262899</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>125.88267719727439</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B42">
         <v>57804919</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>151.14877317312852</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B43">
         <v>63836626</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>190.93617993093272</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B44">
         <v>57255026</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>273.44543583420455</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B45">
         <v>50300959</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>541.44692108797528</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B46">
         <v>42087425</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>929.57588125369841</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B47">
         <v>38144734</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>2.7865882251368879</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B48">
         <v>24633449</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>-60.23002939853459</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B49">
         <v>24923269</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>-61.616722306135706</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B50">
         <v>27785059</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>-61.983841614060999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B51">
         <v>26220138</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>-61.255031869120138</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B52">
         <v>26872816</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>-62.687510152425475</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B53">
         <v>22694480</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>-65.935801375969987</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B54">
         <v>23016206</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>-69.748883810046138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B55">
         <v>21941797</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>-72.169720159774315</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B56">
         <v>15331564</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>-79.955950733275245</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B57">
         <v>7841796</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>-89.485728254540703</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B58">
         <v>4087841</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>-94.139715897342811</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B59">
         <v>37110614</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>-48.964132748214254</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B60">
         <v>61939822</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>5.8157396222845659</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B61">
         <v>64932623</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>5.2479606134050005</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B62">
         <v>73087498</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2">
+        <v>43799</v>
+      </c>
+      <c r="B63">
         <v>67673660</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B64">
         <v>72020967</v>
       </c>
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64">
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B65">
         <v>66622674</v>
       </c>
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B66">
         <v>76083824</v>
       </c>
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B67">
         <v>78841453</v>
       </c>
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B68">
         <v>76489355</v>
       </c>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B69">
         <v>74582398</v>
       </c>
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B70">
         <v>69754997</v>
       </c>
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B71">
         <v>72714771</v>
       </c>
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B72">
         <v>58535547</v>
       </c>
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B73">
         <v>61694899</v>
       </c>
-      <c r="C72"/>
+      <c r="C73"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CFC444-06C3-4EA4-A69C-50F5254C5306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE130898-18EF-4CA1-8BE5-C5BDF6D5D9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3936" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +405,7 @@
     <col min="3" max="3" width="14.41796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,831 +416,874 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B2">
-        <v>77307984</v>
+        <v>65735385</v>
       </c>
       <c r="C2" s="1">
         <f>(B2/B14-1)*100</f>
-        <v>6.5403859367984429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>1.9987637328812147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B3">
-        <v>71869129</v>
+        <v>77307984</v>
       </c>
       <c r="C3" s="1">
         <f>(B3/B15-1)*100</f>
+        <v>6.5403859367984429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B4">
+        <v>71869129</v>
+      </c>
+      <c r="C4" s="1">
+        <f>(B4/B16-1)*100</f>
         <v>0.22487208448700446</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
         <v>45596</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>76321249</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C61" si="0">(B4/B16-1)*100</f>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C62" si="0">(B5/B17-1)*100</f>
         <v>0.78195321604515033</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
         <v>45565</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>71770210</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>2.2168646708501161</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
         <v>45535</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>79493447</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>5.4765063757776788</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
         <v>45504</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>84029018</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>5.237472076457772</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
         <v>45473</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>82011371</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>6.2926545447457016</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>45443</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>80316911</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>7.7186419804812445</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>45412</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>73821334</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>5.1332466476815108</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>45382</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>77167666</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>7.2973348994184617</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
         <v>45351</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>64600292</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>10.690612056346405</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
         <v>45322</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>64447237</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>5.8127339370286579</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
         <v>45291</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>72562140</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>9.7241688934199377</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>45260</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>71707878</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>10.648320361718856</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
         <v>45230</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>75729083</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>11.707148251017042</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
         <v>45199</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>70213668</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>10.441037185509771</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
         <v>45169</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>75366022</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>11.149065326684159</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
         <v>45138</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>79847051</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>12.335686284264202</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
         <v>45107</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>77156198</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>12.209408431381918</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
         <v>45077</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>74561756</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>10.363712247666435</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
         <v>45046</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>70216926</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>10.149733643083803</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
         <v>45016</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>71919462</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>12.53835635374374</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>44985</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>58361130</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>19.815805858300518</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
         <v>44957</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>60906882</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>31.844213335940186</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
         <v>44926</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>66131410</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>11.445680699849792</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
         <v>44895</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>64807019</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>11.731408234968054</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
         <v>44865</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>67792513</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>17.573713635771515</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
         <v>44834</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>63575705</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>24.018942042275061</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
         <v>44804</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>67806258</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>17.301882215248842</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
         <v>44773</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>71078972</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>11.345126542245509</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
         <v>44742</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>68760899</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>20.095830538964378</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
         <v>44712</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>67560029</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>34.311612229898046</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
         <v>44681</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>63746796</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>51.4628086655337</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
         <v>44651</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>63906622</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>67.537207101771884</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
         <v>44620</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>48709041</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>97.735367873171143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
         <v>44592</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>46196098</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>85.353285718659151</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
         <v>44561</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>59339590</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>113.56654308346079</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
         <v>44530</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>58002508</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>121.21358781559425</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
         <v>44500</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>57659583</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>114.56472220849503</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
         <v>44469</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>51262899</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>125.88267719727439</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
         <v>44439</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>57804919</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>151.14877317312852</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
         <v>44408</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>63836626</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>190.93617993093272</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
         <v>44377</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>57255026</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>273.44543583420455</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
         <v>44347</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>50300959</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>541.44692108797528</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
         <v>44316</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>42087425</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>929.57588125369841</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
         <v>44286</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>38144734</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>2.7865882251368879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <v>44255</v>
-      </c>
-      <c r="B48">
-        <v>24633449</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="0"/>
-        <v>-60.23002939853459</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B49">
-        <v>24923269</v>
+        <v>24633449</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>-61.616722306135706</v>
+        <v>-60.23002939853459</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B50">
-        <v>27785059</v>
+        <v>24923269</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>-61.983841614060999</v>
+        <v>-61.616722306135706</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B51">
-        <v>26220138</v>
+        <v>27785059</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>-61.255031869120138</v>
+        <v>-61.983841614060999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B52">
-        <v>26872816</v>
+        <v>26220138</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>-62.687510152425475</v>
+        <v>-61.255031869120138</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B53">
-        <v>22694480</v>
+        <v>26872816</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>-65.935801375969987</v>
+        <v>-62.687510152425475</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B54">
-        <v>23016206</v>
+        <v>22694480</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>-69.748883810046138</v>
+        <v>-65.935801375969987</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B55">
-        <v>21941797</v>
+        <v>23016206</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
-        <v>-72.169720159774315</v>
+        <v>-69.748883810046138</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B56">
-        <v>15331564</v>
+        <v>21941797</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>-79.955950733275245</v>
+        <v>-72.169720159774315</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B57">
-        <v>7841796</v>
+        <v>15331564</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>-89.485728254540703</v>
+        <v>-79.955950733275245</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B58">
-        <v>4087841</v>
+        <v>7841796</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>-94.139715897342811</v>
+        <v>-89.485728254540703</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B59">
-        <v>37110614</v>
+        <v>4087841</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>-48.964132748214254</v>
+        <v>-94.139715897342811</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B60">
-        <v>61939822</v>
+        <v>37110614</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>5.8157396222845659</v>
+        <v>-48.964132748214254</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B61">
-        <v>64932623</v>
+        <v>61939822</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>5.2479606134050005</v>
+        <v>5.8157396222845659</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B62">
-        <v>73087498</v>
+        <v>64932623</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2479606134050005</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B63">
-        <v>67673660</v>
+        <v>73087498</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B64">
-        <v>72020967</v>
-      </c>
-      <c r="C64"/>
+        <v>67673660</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B65">
-        <v>66622674</v>
+        <v>72020967</v>
       </c>
       <c r="C65"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B66">
-        <v>76083824</v>
+        <v>66622674</v>
       </c>
       <c r="C66"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B67">
-        <v>78841453</v>
+        <v>76083824</v>
       </c>
       <c r="C67"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B68">
-        <v>76489355</v>
+        <v>78841453</v>
       </c>
       <c r="C68"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B69">
-        <v>74582398</v>
+        <v>76489355</v>
       </c>
       <c r="C69"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B70">
-        <v>69754997</v>
+        <v>74582398</v>
       </c>
       <c r="C70"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B71">
-        <v>72714771</v>
+        <v>69754997</v>
       </c>
       <c r="C71"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B72">
-        <v>58535547</v>
+        <v>72714771</v>
       </c>
       <c r="C72"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B73">
+        <v>58535547</v>
+      </c>
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2">
         <v>43496</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>61694899</v>
       </c>
-      <c r="C73"/>
+      <c r="C74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE130898-18EF-4CA1-8BE5-C5BDF6D5D9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948F9BA-03B6-4F5F-BE24-51F2D7F0FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -83,15 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +402,7 @@
     <col min="3" max="3" width="14.41796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,874 +413,855 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B2">
-        <v>65735385</v>
+        <v>62579858</v>
       </c>
       <c r="C2" s="1">
         <f>(B2/B14-1)*100</f>
-        <v>1.9987637328812147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>-3.1275926740393034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B3">
-        <v>77307984</v>
+        <v>65735385</v>
       </c>
       <c r="C3" s="1">
         <f>(B3/B15-1)*100</f>
-        <v>6.5403859367984429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1.9987637328812147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B4">
-        <v>71869129</v>
+        <v>77307984</v>
       </c>
       <c r="C4" s="1">
         <f>(B4/B16-1)*100</f>
+        <v>6.5403859367984429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B5">
+        <v>71869129</v>
+      </c>
+      <c r="C5" s="1">
+        <f>(B5/B17-1)*100</f>
         <v>0.22487208448700446</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
         <v>45596</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>76321249</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C62" si="0">(B5/B17-1)*100</f>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C63" si="0">(B6/B18-1)*100</f>
         <v>0.78195321604515033</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
         <v>45565</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>71770210</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>2.2168646708501161</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
         <v>45535</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>79493447</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>5.4765063757776788</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
         <v>45504</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>84029018</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>5.237472076457772</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>45473</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>82011371</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>6.2926545447457016</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>45443</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>80316911</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>7.7186419804812445</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>45412</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>73821334</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>5.1332466476815108</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
         <v>45382</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>77167666</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>7.2973348994184617</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
         <v>45351</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>64600292</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>10.690612056346405</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
         <v>45322</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>64447237</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>5.8127339370286579</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>45291</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>72562140</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>9.7241688934199377</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
         <v>45260</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>71707878</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>10.648320361718856</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
         <v>45230</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>75729083</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>11.707148251017042</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
         <v>45199</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>70213668</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>10.441037185509771</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
         <v>45169</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>75366022</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>11.149065326684159</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
         <v>45138</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>79847051</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>12.335686284264202</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
         <v>45107</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>77156198</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>12.209408431381918</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
         <v>45077</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>74561756</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>10.363712247666435</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
         <v>45046</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>70216926</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>10.149733643083803</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>45016</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>71919462</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>12.53835635374374</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
         <v>44985</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>58361130</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>19.815805858300518</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
         <v>44957</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>60906882</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>31.844213335940186</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
         <v>44926</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>66131410</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>11.445680699849792</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
         <v>44895</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>64807019</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>11.731408234968054</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
         <v>44865</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>67792513</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>17.573713635771515</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
         <v>44834</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>63575705</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>24.018942042275061</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
         <v>44804</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>67806258</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>17.301882215248842</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
         <v>44773</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>71078972</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>11.345126542245509</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
         <v>44742</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>68760899</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>20.095830538964378</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
         <v>44712</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>67560029</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>34.311612229898046</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
         <v>44681</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>63746796</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>51.4628086655337</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
         <v>44651</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>63906622</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>67.537207101771884</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
         <v>44620</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>48709041</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>97.735367873171143</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
         <v>44592</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>46196098</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>85.353285718659151</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
         <v>44561</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>59339590</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>113.56654308346079</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
         <v>44530</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>58002508</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>121.21358781559425</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
         <v>44500</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>57659583</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>114.56472220849503</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
         <v>44469</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>51262899</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>125.88267719727439</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
         <v>44439</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>57804919</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>151.14877317312852</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
         <v>44408</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>63836626</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>190.93617993093272</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
         <v>44377</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>57255026</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>273.44543583420455</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
         <v>44347</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>50300959</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>541.44692108797528</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
         <v>44316</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>42087425</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>929.57588125369841</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <v>44286</v>
-      </c>
-      <c r="B48">
-        <v>38144734</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7865882251368879</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B49">
-        <v>24633449</v>
+        <v>38144734</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>-60.23002939853459</v>
+        <v>2.7865882251368879</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B50">
-        <v>24923269</v>
+        <v>24633449</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>-61.616722306135706</v>
+        <v>-60.23002939853459</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B51">
-        <v>27785059</v>
+        <v>24923269</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>-61.983841614060999</v>
+        <v>-61.616722306135706</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B52">
-        <v>26220138</v>
+        <v>27785059</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>-61.255031869120138</v>
+        <v>-61.983841614060999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B53">
-        <v>26872816</v>
+        <v>26220138</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>-62.687510152425475</v>
+        <v>-61.255031869120138</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B54">
-        <v>22694480</v>
+        <v>26872816</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>-65.935801375969987</v>
+        <v>-62.687510152425475</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B55">
-        <v>23016206</v>
+        <v>22694480</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
-        <v>-69.748883810046138</v>
+        <v>-65.935801375969987</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B56">
-        <v>21941797</v>
+        <v>23016206</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>-72.169720159774315</v>
+        <v>-69.748883810046138</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B57">
-        <v>15331564</v>
+        <v>21941797</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>-79.955950733275245</v>
+        <v>-72.169720159774315</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B58">
-        <v>7841796</v>
+        <v>15331564</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>-89.485728254540703</v>
+        <v>-79.955950733275245</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B59">
-        <v>4087841</v>
+        <v>7841796</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>-94.139715897342811</v>
+        <v>-89.485728254540703</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B60">
-        <v>37110614</v>
+        <v>4087841</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>-48.964132748214254</v>
+        <v>-94.139715897342811</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B61">
-        <v>61939822</v>
+        <v>37110614</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>5.8157396222845659</v>
+        <v>-48.964132748214254</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B62">
-        <v>64932623</v>
+        <v>61939822</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="0"/>
-        <v>5.2479606134050005</v>
+        <v>5.8157396222845659</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B63">
-        <v>73087498</v>
+        <v>64932623</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2479606134050005</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B64">
-        <v>67673660</v>
+        <v>73087498</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B65">
-        <v>72020967</v>
-      </c>
-      <c r="C65"/>
+        <v>67673660</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B66">
-        <v>66622674</v>
+        <v>72020967</v>
       </c>
       <c r="C66"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B67">
-        <v>76083824</v>
+        <v>66622674</v>
       </c>
       <c r="C67"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B68">
-        <v>78841453</v>
+        <v>76083824</v>
       </c>
       <c r="C68"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B69">
-        <v>76489355</v>
+        <v>78841453</v>
       </c>
       <c r="C69"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B70">
-        <v>74582398</v>
+        <v>76489355</v>
       </c>
       <c r="C70"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B71">
-        <v>69754997</v>
+        <v>74582398</v>
       </c>
       <c r="C71"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B72">
-        <v>72714771</v>
+        <v>69754997</v>
       </c>
       <c r="C72"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B73">
-        <v>58535547</v>
+        <v>72714771</v>
       </c>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B74">
+        <v>58535547</v>
+      </c>
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="2">
         <v>43496</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>61694899</v>
       </c>
-      <c r="C74"/>
+      <c r="C75"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948F9BA-03B6-4F5F-BE24-51F2D7F0FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D30373-8E4C-48B0-B72F-E5200BBCA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,18 +398,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.41796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,856 +419,899 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45716</v>
-      </c>
-      <c r="B2">
-        <v>62579858</v>
+        <v>45747</v>
+      </c>
+      <c r="B2" s="5">
+        <v>77204653</v>
       </c>
       <c r="C2" s="1">
         <f>(B2/B14-1)*100</f>
+        <v>4.7930696776554704E-2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B3">
+        <v>62579858</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C14" si="0">(B3/B15-1)*100</f>
         <v>-3.1275926740393034</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45688</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>65735385</v>
       </c>
-      <c r="C3" s="1">
-        <f>(B3/B15-1)*100</f>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
         <v>1.9987637328812147</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45657</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>77307984</v>
       </c>
-      <c r="C4" s="1">
-        <f>(B4/B16-1)*100</f>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
         <v>6.5403859367984429</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45626</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>71869129</v>
       </c>
-      <c r="C5" s="1">
-        <f>(B5/B17-1)*100</f>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
         <v>0.22487208448700446</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45596</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>76321249</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C63" si="0">(B6/B18-1)*100</f>
-        <v>0.78195321604515033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>45565</v>
-      </c>
-      <c r="B7">
-        <v>71770210</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>2.2168646708501161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0.78195321604515033</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B8">
-        <v>79493447</v>
+        <v>71770210</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>5.4765063757776788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.2168646708501161</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B9">
-        <v>84029018</v>
+        <v>79493447</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>5.237472076457772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5.4765063757776788</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B10">
-        <v>82011371</v>
+        <v>84029018</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>6.2926545447457016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5.237472076457772</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B11">
-        <v>80316911</v>
+        <v>82011371</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>7.7186419804812445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6.2926545447457016</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B12">
-        <v>73821334</v>
+        <v>80316911</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>5.1332466476815108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>7.7186419804812445</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B13">
-        <v>77167666</v>
+        <v>73821334</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>7.2973348994184617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5.1332466476815108</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B14">
-        <v>64600292</v>
+        <v>77167666</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
+        <v>7.2973348994184617</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B15">
+        <v>64600292</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:C64" si="1">(B15/B27-1)*100</f>
         <v>10.690612056346405</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45322</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>64447237</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
         <v>5.8127339370286579</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45291</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>72562140</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
         <v>9.7241688934199377</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45260</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>71707878</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
         <v>10.648320361718856</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45230</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>75729083</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
         <v>11.707148251017042</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>45199</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>70213668</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
         <v>10.441037185509771</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45169</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>75366022</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
         <v>11.149065326684159</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>45138</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>79847051</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
         <v>12.335686284264202</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>45107</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>77156198</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
         <v>12.209408431381918</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>45077</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>74561756</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
         <v>10.363712247666435</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>45046</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>70216926</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
         <v>10.149733643083803</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>45016</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>71919462</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
         <v>12.53835635374374</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>44985</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>58361130</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
         <v>19.815805858300518</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>44957</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>60906882</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
         <v>31.844213335940186</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>44926</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>66131410</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
         <v>11.445680699849792</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>44895</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>64807019</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
         <v>11.731408234968054</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>44865</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>67792513</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
         <v>17.573713635771515</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>44834</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>63575705</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
         <v>24.018942042275061</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>44804</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>67806258</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
         <v>17.301882215248842</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>44773</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>71078972</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
         <v>11.345126542245509</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>44742</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>68760899</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
         <v>20.095830538964378</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>44712</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>67560029</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="0"/>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
         <v>34.311612229898046</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>44681</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>63746796</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="0"/>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
         <v>51.4628086655337</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>44651</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>63906622</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" si="0"/>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
         <v>67.537207101771884</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>44620</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>48709041</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="0"/>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
         <v>97.735367873171143</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>44592</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>46196098</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="0"/>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
         <v>85.353285718659151</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>44561</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>59339590</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="0"/>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
         <v>113.56654308346079</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>44530</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>58002508</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" si="0"/>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
         <v>121.21358781559425</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>44500</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>57659583</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="0"/>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
         <v>114.56472220849503</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>44469</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>51262899</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" si="0"/>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
         <v>125.88267719727439</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>44439</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>57804919</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" si="0"/>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
         <v>151.14877317312852</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>44408</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>63836626</v>
       </c>
-      <c r="C45" s="1">
-        <f t="shared" si="0"/>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
         <v>190.93617993093272</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>44377</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>57255026</v>
       </c>
-      <c r="C46" s="1">
-        <f t="shared" si="0"/>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
         <v>273.44543583420455</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>44347</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>50300959</v>
       </c>
-      <c r="C47" s="1">
-        <f t="shared" si="0"/>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
         <v>541.44692108797528</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>44316</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>42087425</v>
       </c>
-      <c r="C48" s="1">
-        <f t="shared" si="0"/>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
         <v>929.57588125369841</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>44286</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>38144734</v>
       </c>
-      <c r="C49" s="1">
-        <f t="shared" si="0"/>
+      <c r="C50" s="1">
+        <f t="shared" si="1"/>
         <v>2.7865882251368879</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>44255</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>24633449</v>
       </c>
-      <c r="C50" s="1">
-        <f t="shared" si="0"/>
+      <c r="C51" s="1">
+        <f t="shared" si="1"/>
         <v>-60.23002939853459</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>44227</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>24923269</v>
       </c>
-      <c r="C51" s="1">
-        <f t="shared" si="0"/>
+      <c r="C52" s="1">
+        <f t="shared" si="1"/>
         <v>-61.616722306135706</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>44196</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>27785059</v>
       </c>
-      <c r="C52" s="1">
-        <f t="shared" si="0"/>
+      <c r="C53" s="1">
+        <f t="shared" si="1"/>
         <v>-61.983841614060999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>44165</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>26220138</v>
       </c>
-      <c r="C53" s="1">
-        <f t="shared" si="0"/>
+      <c r="C54" s="1">
+        <f t="shared" si="1"/>
         <v>-61.255031869120138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>44135</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>26872816</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" si="0"/>
+      <c r="C55" s="1">
+        <f t="shared" si="1"/>
         <v>-62.687510152425475</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>44104</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>22694480</v>
       </c>
-      <c r="C55" s="1">
-        <f t="shared" si="0"/>
+      <c r="C56" s="1">
+        <f t="shared" si="1"/>
         <v>-65.935801375969987</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>44074</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>23016206</v>
       </c>
-      <c r="C56" s="1">
-        <f t="shared" si="0"/>
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
         <v>-69.748883810046138</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>44043</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>21941797</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" si="0"/>
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
         <v>-72.169720159774315</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>44012</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>15331564</v>
       </c>
-      <c r="C58" s="1">
-        <f t="shared" si="0"/>
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
         <v>-79.955950733275245</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>43982</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>7841796</v>
       </c>
-      <c r="C59" s="1">
-        <f t="shared" si="0"/>
+      <c r="C60" s="1">
+        <f t="shared" si="1"/>
         <v>-89.485728254540703</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>43951</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>4087841</v>
       </c>
-      <c r="C60" s="1">
-        <f t="shared" si="0"/>
+      <c r="C61" s="1">
+        <f t="shared" si="1"/>
         <v>-94.139715897342811</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>43921</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>37110614</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" si="0"/>
+      <c r="C62" s="1">
+        <f t="shared" si="1"/>
         <v>-48.964132748214254</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>43890</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>61939822</v>
       </c>
-      <c r="C62" s="1">
-        <f t="shared" si="0"/>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
         <v>5.8157396222845659</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>43861</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>64932623</v>
       </c>
-      <c r="C63" s="1">
-        <f t="shared" si="0"/>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
         <v>5.2479606134050005</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>43830</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>73087498</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>43799</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>67673660</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>43769</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>72020967</v>
       </c>
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>43738</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>66622674</v>
       </c>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>43708</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>76083824</v>
       </c>
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>43677</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>78841453</v>
       </c>
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>43646</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>76489355</v>
       </c>
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>43616</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>74582398</v>
       </c>
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>43585</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>69754997</v>
       </c>
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>43555</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>72714771</v>
       </c>
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>43524</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>58535547</v>
       </c>
-      <c r="C74"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>43496</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>61694899</v>
       </c>
-      <c r="C75"/>
+      <c r="C76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D30373-8E4C-48B0-B72F-E5200BBCA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF993647-6833-4A87-B2B6-45C3D55348DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,9 +407,10 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,897 +422,955 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45747</v>
-      </c>
-      <c r="B2" s="5">
-        <v>77204653</v>
+        <v>45808</v>
+      </c>
+      <c r="B2">
+        <v>79204590</v>
       </c>
       <c r="C2" s="1">
         <f>(B2/B14-1)*100</f>
+        <v>-1.3849150647738395</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B3">
+        <v>74186577</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(B3/B15-1)*100</f>
+        <v>0.49476618777981596</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B4">
+        <v>77204653</v>
+      </c>
+      <c r="C4" s="1">
+        <f>(B4/B16-1)*100</f>
         <v>4.7930696776554704E-2</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="F4" s="3"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45716</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>62579858</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C14" si="0">(B3/B15-1)*100</f>
+      <c r="C5" s="1">
+        <f>(B5/B17-1)*100</f>
         <v>-3.1275926740393034</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="F5" s="3"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45688</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>65735385</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C16" si="0">(B6/B18-1)*100</f>
         <v>1.9987637328812147</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="F6" s="3"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45657</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>77307984</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>6.5403859367984429</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="F7" s="3"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45626</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>71869129</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>0.22487208448700446</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="F8" s="3"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45596</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>76321249</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>0.78195321604515033</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F9" s="3"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45565</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>71770210</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>2.2168646708501161</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="F10" s="3"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45535</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>79493447</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>5.4765063757776788</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="F11" s="3"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45504</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>84029018</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>5.237472076457772</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="F12" s="3"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>45473</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>82011371</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>6.2926545447457016</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="F13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>45443</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>80316911</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>7.7186419804812445</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="F14" s="3"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>45412</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>73821334</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>5.1332466476815108</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="F15" s="3"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45382</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>77167666</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>7.2973348994184617</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="F16" s="3"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45351</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>64600292</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" ref="C15:C64" si="1">(B15/B27-1)*100</f>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C66" si="1">(B17/B29-1)*100</f>
         <v>10.690612056346405</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="F17" s="3"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45322</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>64447237</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="1"/>
         <v>5.8127339370286579</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="F18" s="3"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45291</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>72562140</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="1"/>
         <v>9.7241688934199377</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="F19" s="3"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>45260</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>71707878</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="1"/>
         <v>10.648320361718856</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="F20" s="3"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45230</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>75729083</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>11.707148251017042</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="F21" s="3"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>45199</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>70213668</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="1"/>
         <v>10.441037185509771</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="F22" s="4"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>45169</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>75366022</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="1"/>
         <v>11.149065326684159</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="F23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>45138</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>79847051</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="1"/>
         <v>12.335686284264202</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="F24" s="4"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>45107</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>77156198</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="1"/>
         <v>12.209408431381918</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="F25" s="3"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>45077</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>74561756</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="1"/>
         <v>10.363712247666435</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="F26" s="4"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>45046</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>70216926</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>10.149733643083803</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="F27" s="4"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>45016</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>71919462</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C28" s="1">
         <f t="shared" si="1"/>
         <v>12.53835635374374</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="F28" s="4"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>44985</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>58361130</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C29" s="1">
         <f t="shared" si="1"/>
         <v>19.815805858300518</v>
       </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="F29" s="4"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>44957</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>60906882</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C30" s="1">
         <f t="shared" si="1"/>
         <v>31.844213335940186</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="F30" s="4"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>44926</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>66131410</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C31" s="1">
         <f t="shared" si="1"/>
         <v>11.445680699849792</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="F31" s="4"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>44895</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>64807019</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <f t="shared" si="1"/>
         <v>11.731408234968054</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="F32" s="4"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>44865</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>67792513</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C33" s="1">
         <f t="shared" si="1"/>
         <v>17.573713635771515</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="F33" s="4"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>44834</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>63575705</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C34" s="1">
         <f t="shared" si="1"/>
         <v>24.018942042275061</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>44804</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>67806258</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C35" s="1">
         <f t="shared" si="1"/>
         <v>17.301882215248842</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>44773</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>71078972</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C36" s="1">
         <f t="shared" si="1"/>
         <v>11.345126542245509</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>44742</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>68760899</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C37" s="1">
         <f t="shared" si="1"/>
         <v>20.095830538964378</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>44712</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>67560029</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>34.311612229898046</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>44681</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>63746796</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C39" s="1">
         <f t="shared" si="1"/>
         <v>51.4628086655337</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>44651</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>63906622</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C40" s="1">
         <f t="shared" si="1"/>
         <v>67.537207101771884</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>44620</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>48709041</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C41" s="1">
         <f t="shared" si="1"/>
         <v>97.735367873171143</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>44592</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>46196098</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C42" s="1">
         <f t="shared" si="1"/>
         <v>85.353285718659151</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>44561</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>59339590</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C43" s="1">
         <f t="shared" si="1"/>
         <v>113.56654308346079</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>44530</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>58002508</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C44" s="1">
         <f t="shared" si="1"/>
         <v>121.21358781559425</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>44500</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>57659583</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C45" s="1">
         <f t="shared" si="1"/>
         <v>114.56472220849503</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>44469</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>51262899</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C46" s="1">
         <f t="shared" si="1"/>
         <v>125.88267719727439</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>44439</v>
       </c>
-      <c r="B45">
+      <c r="B47">
         <v>57804919</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C47" s="1">
         <f t="shared" si="1"/>
         <v>151.14877317312852</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>44408</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>63836626</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C48" s="1">
         <f t="shared" si="1"/>
         <v>190.93617993093272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44377</v>
-      </c>
-      <c r="B47">
-        <v>57255026</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="1"/>
-        <v>273.44543583420455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>44347</v>
-      </c>
-      <c r="B48">
-        <v>50300959</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="1"/>
-        <v>541.44692108797528</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="B49">
-        <v>42087425</v>
+        <v>57255026</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>929.57588125369841</v>
+        <v>273.44543583420455</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44286</v>
+        <v>44347</v>
       </c>
       <c r="B50">
-        <v>38144734</v>
+        <v>50300959</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>2.7865882251368879</v>
+        <v>541.44692108797528</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="B51">
-        <v>24633449</v>
+        <v>42087425</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>-60.23002939853459</v>
+        <v>929.57588125369841</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="B52">
-        <v>24923269</v>
+        <v>38144734</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>-61.616722306135706</v>
+        <v>2.7865882251368879</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44196</v>
+        <v>44255</v>
       </c>
       <c r="B53">
-        <v>27785059</v>
+        <v>24633449</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>-61.983841614060999</v>
+        <v>-60.23002939853459</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44165</v>
+        <v>44227</v>
       </c>
       <c r="B54">
-        <v>26220138</v>
+        <v>24923269</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>-61.255031869120138</v>
+        <v>-61.616722306135706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="B55">
-        <v>26872816</v>
+        <v>27785059</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>-62.687510152425475</v>
+        <v>-61.983841614060999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44104</v>
+        <v>44165</v>
       </c>
       <c r="B56">
-        <v>22694480</v>
+        <v>26220138</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>-65.935801375969987</v>
+        <v>-61.255031869120138</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="B57">
-        <v>23016206</v>
+        <v>26872816</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>-69.748883810046138</v>
+        <v>-62.687510152425475</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="B58">
-        <v>21941797</v>
+        <v>22694480</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>-72.169720159774315</v>
+        <v>-65.935801375969987</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44012</v>
+        <v>44074</v>
       </c>
       <c r="B59">
-        <v>15331564</v>
+        <v>23016206</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>-79.955950733275245</v>
+        <v>-69.748883810046138</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="B60">
-        <v>7841796</v>
+        <v>21941797</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>-89.485728254540703</v>
+        <v>-72.169720159774315</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43951</v>
+        <v>44012</v>
       </c>
       <c r="B61">
-        <v>4087841</v>
+        <v>15331564</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>-94.139715897342811</v>
+        <v>-79.955950733275245</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43921</v>
+        <v>43982</v>
       </c>
       <c r="B62">
-        <v>37110614</v>
+        <v>7841796</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>-48.964132748214254</v>
+        <v>-89.485728254540703</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43890</v>
+        <v>43951</v>
       </c>
       <c r="B63">
-        <v>61939822</v>
+        <v>4087841</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>5.8157396222845659</v>
+        <v>-94.139715897342811</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43861</v>
+        <v>43921</v>
       </c>
       <c r="B64">
-        <v>64932623</v>
+        <v>37110614</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>5.2479606134050005</v>
+        <v>-48.964132748214254</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43830</v>
+        <v>43890</v>
       </c>
       <c r="B65">
-        <v>73087498</v>
+        <v>61939822</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8157396222845659</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43799</v>
+        <v>43861</v>
       </c>
       <c r="B66">
-        <v>67673660</v>
+        <v>64932623</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2479606134050005</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="B67">
-        <v>72020967</v>
-      </c>
-      <c r="C67"/>
+        <v>73087498</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43738</v>
+        <v>43799</v>
       </c>
       <c r="B68">
-        <v>66622674</v>
-      </c>
-      <c r="C68"/>
+        <v>67673660</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="B69">
-        <v>76083824</v>
+        <v>72020967</v>
       </c>
       <c r="C69"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="B70">
-        <v>78841453</v>
+        <v>66622674</v>
       </c>
       <c r="C70"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43646</v>
+        <v>43708</v>
       </c>
       <c r="B71">
-        <v>76489355</v>
+        <v>76083824</v>
       </c>
       <c r="C71"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43616</v>
+        <v>43677</v>
       </c>
       <c r="B72">
-        <v>74582398</v>
+        <v>78841453</v>
       </c>
       <c r="C72"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43585</v>
+        <v>43646</v>
       </c>
       <c r="B73">
-        <v>69754997</v>
+        <v>76489355</v>
       </c>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="B74">
-        <v>72714771</v>
+        <v>74582398</v>
       </c>
       <c r="C74"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43524</v>
+        <v>43585</v>
       </c>
       <c r="B75">
-        <v>58535547</v>
+        <v>69754997</v>
       </c>
       <c r="C75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B76">
+        <v>72714771</v>
+      </c>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B77">
+        <v>58535547</v>
+      </c>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>43496</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>61694899</v>
       </c>
-      <c r="C76"/>
+      <c r="C78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF993647-6833-4A87-B2B6-45C3D55348DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA23F7A-EED5-4DD9-BDE0-3AEBA1B7C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,953 +424,967 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="B2">
-        <v>79204590</v>
+        <v>81310942</v>
       </c>
       <c r="C2" s="1">
         <f>(B2/B14-1)*100</f>
-        <v>-1.3849150647738395</v>
+        <v>-0.85406327373798163</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B3">
-        <v>74186577</v>
+        <v>79204590</v>
       </c>
       <c r="C3" s="1">
         <f>(B3/B15-1)*100</f>
-        <v>0.49476618777981596</v>
+        <v>-1.3849150647738395</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B4">
-        <v>77204653</v>
+        <v>74186577</v>
       </c>
       <c r="C4" s="1">
         <f>(B4/B16-1)*100</f>
-        <v>4.7930696776554704E-2</v>
+        <v>0.49476618777981596</v>
       </c>
       <c r="F4" s="3"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B5">
-        <v>62579858</v>
+        <v>77204653</v>
       </c>
       <c r="C5" s="1">
         <f>(B5/B17-1)*100</f>
-        <v>-3.1275926740393034</v>
+        <v>4.7930696776554704E-2</v>
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B6">
-        <v>65735385</v>
+        <v>62579858</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C16" si="0">(B6/B18-1)*100</f>
-        <v>1.9987637328812147</v>
+        <f>(B6/B18-1)*100</f>
+        <v>-3.1275926740393034</v>
       </c>
       <c r="F6" s="3"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B7">
+        <v>65735385</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C17" si="0">(B7/B19-1)*100</f>
+        <v>1.9987637328812147</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45657</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>77307984</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6.5403859367984429</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F8" s="3"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45626</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>71869129</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>0.22487208448700446</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="F9" s="3"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45596</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>76321249</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>0.78195321604515033</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="F10" s="3"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45565</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>71770210</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>2.2168646708501161</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="F11" s="3"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45535</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>79493447</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>5.4765063757776788</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="F12" s="3"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>45504</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>84029018</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>5.237472076457772</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="F13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>45473</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>82011371</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>6.2926545447457016</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="F14" s="3"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>45443</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>80316911</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>7.7186419804812445</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="F15" s="3"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45412</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>73821334</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>5.1332466476815108</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="F16" s="3"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45382</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>77167666</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>7.2973348994184617</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45351</v>
-      </c>
-      <c r="B17">
-        <v>64600292</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:C66" si="1">(B17/B29-1)*100</f>
-        <v>10.690612056346405</v>
-      </c>
       <c r="F17" s="3"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B18">
-        <v>64447237</v>
+        <v>64600292</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8127339370286579</v>
+        <f t="shared" ref="C18:C67" si="1">(B18/B30-1)*100</f>
+        <v>10.690612056346405</v>
       </c>
       <c r="F18" s="3"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B19">
-        <v>72562140</v>
+        <v>64447237</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>9.7241688934199377</v>
+        <v>5.8127339370286579</v>
       </c>
       <c r="F19" s="3"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B20">
-        <v>71707878</v>
+        <v>72562140</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>10.648320361718856</v>
+        <v>9.7241688934199377</v>
       </c>
       <c r="F20" s="3"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B21">
-        <v>75729083</v>
+        <v>71707878</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>11.707148251017042</v>
+        <v>10.648320361718856</v>
       </c>
       <c r="F21" s="3"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B22">
-        <v>70213668</v>
+        <v>75729083</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>10.441037185509771</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>11.707148251017042</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B23">
-        <v>75366022</v>
+        <v>70213668</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>11.149065326684159</v>
+        <v>10.441037185509771</v>
       </c>
       <c r="F23" s="4"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B24">
-        <v>79847051</v>
+        <v>75366022</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>12.335686284264202</v>
+        <v>11.149065326684159</v>
       </c>
       <c r="F24" s="4"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B25">
-        <v>77156198</v>
+        <v>79847051</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>12.209408431381918</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>12.335686284264202</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B26">
-        <v>74561756</v>
+        <v>77156198</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>10.363712247666435</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>12.209408431381918</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B27">
-        <v>70216926</v>
+        <v>74561756</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>10.149733643083803</v>
+        <v>10.363712247666435</v>
       </c>
       <c r="F27" s="4"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B28">
-        <v>71919462</v>
+        <v>70216926</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>12.53835635374374</v>
+        <v>10.149733643083803</v>
       </c>
       <c r="F28" s="4"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B29">
-        <v>58361130</v>
+        <v>71919462</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>19.815805858300518</v>
+        <v>12.53835635374374</v>
       </c>
       <c r="F29" s="4"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B30">
-        <v>60906882</v>
+        <v>58361130</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>31.844213335940186</v>
+        <v>19.815805858300518</v>
       </c>
       <c r="F30" s="4"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B31">
-        <v>66131410</v>
+        <v>60906882</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>11.445680699849792</v>
+        <v>31.844213335940186</v>
       </c>
       <c r="F31" s="4"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B32">
-        <v>64807019</v>
+        <v>66131410</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>11.731408234968054</v>
+        <v>11.445680699849792</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B33">
-        <v>67792513</v>
+        <v>64807019</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>17.573713635771515</v>
+        <v>11.731408234968054</v>
       </c>
       <c r="F33" s="4"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B34">
-        <v>63575705</v>
+        <v>67792513</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>24.018942042275061</v>
-      </c>
+        <v>17.573713635771515</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B35">
-        <v>67806258</v>
+        <v>63575705</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>17.301882215248842</v>
+        <v>24.018942042275061</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B36">
-        <v>71078972</v>
+        <v>67806258</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>11.345126542245509</v>
+        <v>17.301882215248842</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B37">
-        <v>68760899</v>
+        <v>71078972</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>20.095830538964378</v>
+        <v>11.345126542245509</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B38">
-        <v>67560029</v>
+        <v>68760899</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>34.311612229898046</v>
+        <v>20.095830538964378</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B39">
-        <v>63746796</v>
+        <v>67560029</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>51.4628086655337</v>
+        <v>34.311612229898046</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B40">
-        <v>63906622</v>
+        <v>63746796</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>67.537207101771884</v>
+        <v>51.4628086655337</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B41">
-        <v>48709041</v>
+        <v>63906622</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>97.735367873171143</v>
+        <v>67.537207101771884</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B42">
-        <v>46196098</v>
+        <v>48709041</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>85.353285718659151</v>
+        <v>97.735367873171143</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B43">
-        <v>59339590</v>
+        <v>46196098</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>113.56654308346079</v>
+        <v>85.353285718659151</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B44">
-        <v>58002508</v>
+        <v>59339590</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>121.21358781559425</v>
+        <v>113.56654308346079</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B45">
-        <v>57659583</v>
+        <v>58002508</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>114.56472220849503</v>
+        <v>121.21358781559425</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B46">
-        <v>51262899</v>
+        <v>57659583</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>125.88267719727439</v>
+        <v>114.56472220849503</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B47">
-        <v>57804919</v>
+        <v>51262899</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>151.14877317312852</v>
+        <v>125.88267719727439</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B48">
-        <v>63836626</v>
+        <v>57804919</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>190.93617993093272</v>
+        <v>151.14877317312852</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B49">
-        <v>57255026</v>
+        <v>63836626</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>273.44543583420455</v>
+        <v>190.93617993093272</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B50">
-        <v>50300959</v>
+        <v>57255026</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>541.44692108797528</v>
+        <v>273.44543583420455</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B51">
-        <v>42087425</v>
+        <v>50300959</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>929.57588125369841</v>
+        <v>541.44692108797528</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B52">
-        <v>38144734</v>
+        <v>42087425</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>2.7865882251368879</v>
+        <v>929.57588125369841</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B53">
-        <v>24633449</v>
+        <v>38144734</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>-60.23002939853459</v>
+        <v>2.7865882251368879</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B54">
-        <v>24923269</v>
+        <v>24633449</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>-61.616722306135706</v>
+        <v>-60.23002939853459</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B55">
-        <v>27785059</v>
+        <v>24923269</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>-61.983841614060999</v>
+        <v>-61.616722306135706</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B56">
-        <v>26220138</v>
+        <v>27785059</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>-61.255031869120138</v>
+        <v>-61.983841614060999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B57">
-        <v>26872816</v>
+        <v>26220138</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>-62.687510152425475</v>
+        <v>-61.255031869120138</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B58">
-        <v>22694480</v>
+        <v>26872816</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>-65.935801375969987</v>
+        <v>-62.687510152425475</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B59">
-        <v>23016206</v>
+        <v>22694480</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>-69.748883810046138</v>
+        <v>-65.935801375969987</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B60">
-        <v>21941797</v>
+        <v>23016206</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>-72.169720159774315</v>
+        <v>-69.748883810046138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B61">
-        <v>15331564</v>
+        <v>21941797</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>-79.955950733275245</v>
+        <v>-72.169720159774315</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B62">
-        <v>7841796</v>
+        <v>15331564</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>-89.485728254540703</v>
+        <v>-79.955950733275245</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B63">
-        <v>4087841</v>
+        <v>7841796</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>-94.139715897342811</v>
+        <v>-89.485728254540703</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B64">
-        <v>37110614</v>
+        <v>4087841</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>-48.964132748214254</v>
+        <v>-94.139715897342811</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B65">
-        <v>61939822</v>
+        <v>37110614</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="1"/>
-        <v>5.8157396222845659</v>
+        <v>-48.964132748214254</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B66">
-        <v>64932623</v>
+        <v>61939822</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="1"/>
-        <v>5.2479606134050005</v>
+        <v>5.8157396222845659</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B67">
-        <v>73087498</v>
+        <v>64932623</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2479606134050005</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B68">
-        <v>67673660</v>
+        <v>73087498</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B69">
-        <v>72020967</v>
-      </c>
-      <c r="C69"/>
+        <v>67673660</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B70">
-        <v>66622674</v>
+        <v>72020967</v>
       </c>
       <c r="C70"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B71">
-        <v>76083824</v>
+        <v>66622674</v>
       </c>
       <c r="C71"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B72">
-        <v>78841453</v>
+        <v>76083824</v>
       </c>
       <c r="C72"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B73">
-        <v>76489355</v>
+        <v>78841453</v>
       </c>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B74">
-        <v>74582398</v>
+        <v>76489355</v>
       </c>
       <c r="C74"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B75">
-        <v>69754997</v>
+        <v>74582398</v>
       </c>
       <c r="C75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B76">
-        <v>72714771</v>
+        <v>69754997</v>
       </c>
       <c r="C76"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B77">
-        <v>58535547</v>
+        <v>72714771</v>
       </c>
       <c r="C77"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B78">
+        <v>58535547</v>
+      </c>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>43496</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>61694899</v>
       </c>
-      <c r="C78"/>
+      <c r="C79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636090999323648/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA23F7A-EED5-4DD9-BDE0-3AEBA1B7C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DEA23F7A-EED5-4DD9-BDE0-3AEBA1B7C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DB2E2B-2EDC-4C51-A3F5-1780CD9A0D49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,9 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,967 +426,981 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="B2">
-        <v>81310942</v>
+        <v>85069193</v>
       </c>
       <c r="C2" s="1">
         <f>(B2/B14-1)*100</f>
-        <v>-0.85406327373798163</v>
+        <v>1.2378759442363219</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="B3">
-        <v>79204590</v>
+        <v>81310942</v>
       </c>
       <c r="C3" s="1">
-        <f>(B3/B15-1)*100</f>
-        <v>-1.3849150647738395</v>
+        <f>(B3/B16-1)*100</f>
+        <v>1.2376359942428472</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B4">
-        <v>74186577</v>
+        <v>79204590</v>
       </c>
       <c r="C4" s="1">
         <f>(B4/B16-1)*100</f>
-        <v>0.49476618777981596</v>
+        <v>-1.3849150647738395</v>
       </c>
       <c r="F4" s="3"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B5">
-        <v>77204653</v>
+        <v>74186577</v>
       </c>
       <c r="C5" s="1">
         <f>(B5/B17-1)*100</f>
-        <v>4.7930696776554704E-2</v>
+        <v>0.49476618777981596</v>
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B6">
-        <v>62579858</v>
+        <v>77204653</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B18-1)*100</f>
-        <v>-3.1275926740393034</v>
+        <v>4.7930696776554704E-2</v>
       </c>
       <c r="F6" s="3"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B7">
-        <v>65735385</v>
+        <v>62579858</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C17" si="0">(B7/B19-1)*100</f>
-        <v>1.9987637328812147</v>
+        <f>(B7/B19-1)*100</f>
+        <v>-3.1275926740393034</v>
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B8">
+        <v>65735385</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:C18" si="0">(B8/B20-1)*100</f>
+        <v>1.9987637328812147</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45657</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>77307984</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>6.5403859367984429</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="F9" s="3"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45626</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>71869129</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>0.22487208448700446</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="F10" s="3"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45596</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>76321249</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>0.78195321604515033</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="F11" s="3"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45565</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>71770210</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>2.2168646708501161</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="F12" s="3"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>45535</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>79493447</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>5.4765063757776788</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="F13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>45504</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>84029018</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>5.237472076457772</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="F14" s="3"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>45473</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>82011371</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>6.2926545447457016</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="F15" s="3"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45443</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>80316911</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>7.7186419804812445</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="F16" s="3"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45412</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>73821334</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>5.1332466476815108</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="F17" s="3"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45382</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>77167666</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>7.2973348994184617</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>45351</v>
-      </c>
-      <c r="B18">
-        <v>64600292</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" ref="C18:C67" si="1">(B18/B30-1)*100</f>
-        <v>10.690612056346405</v>
-      </c>
       <c r="F18" s="3"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B19">
-        <v>64447237</v>
+        <v>64600292</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8127339370286579</v>
+        <f t="shared" ref="C19:C68" si="1">(B19/B31-1)*100</f>
+        <v>10.690612056346405</v>
       </c>
       <c r="F19" s="3"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B20">
-        <v>72562140</v>
+        <v>64447237</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>9.7241688934199377</v>
+        <v>5.8127339370286579</v>
       </c>
       <c r="F20" s="3"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B21">
-        <v>71707878</v>
+        <v>72562140</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>10.648320361718856</v>
+        <v>9.7241688934199377</v>
       </c>
       <c r="F21" s="3"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B22">
-        <v>75729083</v>
+        <v>71707878</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>11.707148251017042</v>
+        <v>10.648320361718856</v>
       </c>
       <c r="F22" s="3"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B23">
-        <v>70213668</v>
+        <v>75729083</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>10.441037185509771</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>11.707148251017042</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B24">
-        <v>75366022</v>
+        <v>70213668</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>11.149065326684159</v>
+        <v>10.441037185509771</v>
       </c>
       <c r="F24" s="4"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B25">
-        <v>79847051</v>
+        <v>75366022</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>12.335686284264202</v>
+        <v>11.149065326684159</v>
       </c>
       <c r="F25" s="4"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B26">
-        <v>77156198</v>
+        <v>79847051</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>12.209408431381918</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>12.335686284264202</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B27">
-        <v>74561756</v>
+        <v>77156198</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>10.363712247666435</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>12.209408431381918</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B28">
-        <v>70216926</v>
+        <v>74561756</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>10.149733643083803</v>
+        <v>10.363712247666435</v>
       </c>
       <c r="F28" s="4"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B29">
-        <v>71919462</v>
+        <v>70216926</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>12.53835635374374</v>
+        <v>10.149733643083803</v>
       </c>
       <c r="F29" s="4"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B30">
-        <v>58361130</v>
+        <v>71919462</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>19.815805858300518</v>
+        <v>12.53835635374374</v>
       </c>
       <c r="F30" s="4"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B31">
-        <v>60906882</v>
+        <v>58361130</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>31.844213335940186</v>
+        <v>19.815805858300518</v>
       </c>
       <c r="F31" s="4"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B32">
-        <v>66131410</v>
+        <v>60906882</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>11.445680699849792</v>
+        <v>31.844213335940186</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B33">
-        <v>64807019</v>
+        <v>66131410</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>11.731408234968054</v>
+        <v>11.445680699849792</v>
       </c>
       <c r="F33" s="4"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B34">
-        <v>67792513</v>
+        <v>64807019</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>17.573713635771515</v>
+        <v>11.731408234968054</v>
       </c>
       <c r="F34" s="4"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B35">
-        <v>63575705</v>
+        <v>67792513</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>24.018942042275061</v>
-      </c>
+        <v>17.573713635771515</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B36">
-        <v>67806258</v>
+        <v>63575705</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>17.301882215248842</v>
+        <v>24.018942042275061</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B37">
-        <v>71078972</v>
+        <v>67806258</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>11.345126542245509</v>
+        <v>17.301882215248842</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B38">
-        <v>68760899</v>
+        <v>71078972</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>20.095830538964378</v>
+        <v>11.345126542245509</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B39">
-        <v>67560029</v>
+        <v>68760899</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>34.311612229898046</v>
+        <v>20.095830538964378</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B40">
-        <v>63746796</v>
+        <v>67560029</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>51.4628086655337</v>
+        <v>34.311612229898046</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B41">
-        <v>63906622</v>
+        <v>63746796</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>67.537207101771884</v>
+        <v>51.4628086655337</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B42">
-        <v>48709041</v>
+        <v>63906622</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>97.735367873171143</v>
+        <v>67.537207101771884</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B43">
-        <v>46196098</v>
+        <v>48709041</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>85.353285718659151</v>
+        <v>97.735367873171143</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B44">
-        <v>59339590</v>
+        <v>46196098</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>113.56654308346079</v>
+        <v>85.353285718659151</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B45">
-        <v>58002508</v>
+        <v>59339590</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>121.21358781559425</v>
+        <v>113.56654308346079</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B46">
-        <v>57659583</v>
+        <v>58002508</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>114.56472220849503</v>
+        <v>121.21358781559425</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B47">
-        <v>51262899</v>
+        <v>57659583</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>125.88267719727439</v>
+        <v>114.56472220849503</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B48">
-        <v>57804919</v>
+        <v>51262899</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>151.14877317312852</v>
+        <v>125.88267719727439</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B49">
-        <v>63836626</v>
+        <v>57804919</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>190.93617993093272</v>
+        <v>151.14877317312852</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B50">
-        <v>57255026</v>
+        <v>63836626</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>273.44543583420455</v>
+        <v>190.93617993093272</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B51">
-        <v>50300959</v>
+        <v>57255026</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>541.44692108797528</v>
+        <v>273.44543583420455</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B52">
-        <v>42087425</v>
+        <v>50300959</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>929.57588125369841</v>
+        <v>541.44692108797528</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B53">
-        <v>38144734</v>
+        <v>42087425</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>2.7865882251368879</v>
+        <v>929.57588125369841</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B54">
-        <v>24633449</v>
+        <v>38144734</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>-60.23002939853459</v>
+        <v>2.7865882251368879</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B55">
-        <v>24923269</v>
+        <v>24633449</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>-61.616722306135706</v>
+        <v>-60.23002939853459</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B56">
-        <v>27785059</v>
+        <v>24923269</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>-61.983841614060999</v>
+        <v>-61.616722306135706</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B57">
-        <v>26220138</v>
+        <v>27785059</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>-61.255031869120138</v>
+        <v>-61.983841614060999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B58">
-        <v>26872816</v>
+        <v>26220138</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>-62.687510152425475</v>
+        <v>-61.255031869120138</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B59">
-        <v>22694480</v>
+        <v>26872816</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>-65.935801375969987</v>
+        <v>-62.687510152425475</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B60">
-        <v>23016206</v>
+        <v>22694480</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>-69.748883810046138</v>
+        <v>-65.935801375969987</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B61">
-        <v>21941797</v>
+        <v>23016206</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>-72.169720159774315</v>
+        <v>-69.748883810046138</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B62">
-        <v>15331564</v>
+        <v>21941797</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>-79.955950733275245</v>
+        <v>-72.169720159774315</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B63">
-        <v>7841796</v>
+        <v>15331564</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>-89.485728254540703</v>
+        <v>-79.955950733275245</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B64">
-        <v>4087841</v>
+        <v>7841796</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>-94.139715897342811</v>
+        <v>-89.485728254540703</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B65">
-        <v>37110614</v>
+        <v>4087841</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="1"/>
-        <v>-48.964132748214254</v>
+        <v>-94.139715897342811</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B66">
-        <v>61939822</v>
+        <v>37110614</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="1"/>
-        <v>5.8157396222845659</v>
+        <v>-48.964132748214254</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B67">
-        <v>64932623</v>
+        <v>61939822</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="1"/>
-        <v>5.2479606134050005</v>
+        <v>5.8157396222845659</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B68">
-        <v>73087498</v>
+        <v>64932623</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2479606134050005</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B69">
-        <v>67673660</v>
+        <v>73087498</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B70">
-        <v>72020967</v>
-      </c>
-      <c r="C70"/>
+        <v>67673660</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B71">
-        <v>66622674</v>
+        <v>72020967</v>
       </c>
       <c r="C71"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B72">
-        <v>76083824</v>
+        <v>66622674</v>
       </c>
       <c r="C72"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B73">
-        <v>78841453</v>
+        <v>76083824</v>
       </c>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B74">
-        <v>76489355</v>
+        <v>78841453</v>
       </c>
       <c r="C74"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B75">
-        <v>74582398</v>
+        <v>76489355</v>
       </c>
       <c r="C75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B76">
-        <v>69754997</v>
+        <v>74582398</v>
       </c>
       <c r="C76"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B77">
-        <v>72714771</v>
+        <v>69754997</v>
       </c>
       <c r="C77"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B78">
-        <v>58535547</v>
+        <v>72714771</v>
       </c>
       <c r="C78"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B79">
+        <v>58535547</v>
+      </c>
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>43496</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>61694899</v>
       </c>
-      <c r="C79"/>
+      <c r="C80"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636090999323648/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DEA23F7A-EED5-4DD9-BDE0-3AEBA1B7C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DB2E2B-2EDC-4C51-A3F5-1780CD9A0D49}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DEA23F7A-EED5-4DD9-BDE0-3AEBA1B7C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738F189D-6EEE-4E06-8730-A3D51878B30B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,981 +426,1009 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="B2">
-        <v>85069193</v>
+        <v>71947622</v>
       </c>
       <c r="C2" s="1">
-        <f>(B2/B14-1)*100</f>
-        <v>1.2378759442363219</v>
+        <f>(B2/B16-1)*100</f>
+        <v>-14.377647493155276</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45838</v>
+        <v>45900</v>
       </c>
       <c r="B3">
-        <v>81310942</v>
+        <v>80304585</v>
       </c>
       <c r="C3" s="1">
         <f>(B3/B16-1)*100</f>
-        <v>1.2376359942428472</v>
+        <v>-4.4323176548368037</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45808</v>
+        <v>45869</v>
       </c>
       <c r="B4">
-        <v>79204590</v>
+        <v>85069193</v>
       </c>
       <c r="C4" s="1">
-        <f>(B4/B16-1)*100</f>
-        <v>-1.3849150647738395</v>
+        <f>(B4/B17-1)*100</f>
+        <v>3.7285341809491168</v>
       </c>
       <c r="F4" s="3"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45777</v>
+        <v>45838</v>
       </c>
       <c r="B5">
-        <v>74186577</v>
+        <v>81310942</v>
       </c>
       <c r="C5" s="1">
-        <f>(B5/B17-1)*100</f>
-        <v>0.49476618777981596</v>
+        <f>(B5/B18-1)*100</f>
+        <v>1.2376359942428472</v>
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="B6">
-        <v>77204653</v>
+        <v>79204590</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B18-1)*100</f>
-        <v>4.7930696776554704E-2</v>
+        <v>-1.3849150647738395</v>
       </c>
       <c r="F6" s="3"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45716</v>
+        <v>45777</v>
       </c>
       <c r="B7">
-        <v>62579858</v>
+        <v>74186577</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B19-1)*100</f>
-        <v>-3.1275926740393034</v>
+        <v>0.49476618777981596</v>
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45688</v>
+        <v>45747</v>
       </c>
       <c r="B8">
-        <v>65735385</v>
+        <v>77204653</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C18" si="0">(B8/B20-1)*100</f>
-        <v>1.9987637328812147</v>
+        <f>(B8/B20-1)*100</f>
+        <v>4.7930696776554704E-2</v>
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B9">
+        <v>62579858</v>
+      </c>
+      <c r="C9" s="1">
+        <f>(B9/B21-1)*100</f>
+        <v>-3.1275926740393034</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B10">
+        <v>65735385</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:C20" si="0">(B10/B22-1)*100</f>
+        <v>1.9987637328812147</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45657</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>77307984</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>6.5403859367984429</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="F11" s="3"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45626</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>71869129</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>0.22487208448700446</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="F12" s="3"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>45596</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>76321249</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>0.78195321604515033</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="F13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>45565</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>71770210</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>2.2168646708501161</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="F14" s="3"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>45535</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>79493447</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>5.4765063757776788</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="F15" s="3"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45504</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>84029018</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>5.237472076457772</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="F16" s="3"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45473</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>82011371</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>6.2926545447457016</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="F17" s="3"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45443</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>80316911</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>7.7186419804812445</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="F18" s="3"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45412</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>73821334</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>5.1332466476815108</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="F19" s="3"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>45382</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>77167666</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>7.2973348994184617</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>45351</v>
-      </c>
-      <c r="B19">
-        <v>64600292</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:C68" si="1">(B19/B31-1)*100</f>
-        <v>10.690612056346405</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B20">
-        <v>64447237</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8127339370286579</v>
-      </c>
       <c r="F20" s="3"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45291</v>
+        <v>45351</v>
       </c>
       <c r="B21">
-        <v>72562140</v>
+        <v>64600292</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
-        <v>9.7241688934199377</v>
+        <f t="shared" ref="C21:C70" si="1">(B21/B33-1)*100</f>
+        <v>10.690612056346405</v>
       </c>
       <c r="F21" s="3"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45260</v>
+        <v>45322</v>
       </c>
       <c r="B22">
-        <v>71707878</v>
+        <v>64447237</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>10.648320361718856</v>
+        <v>5.8127339370286579</v>
       </c>
       <c r="F22" s="3"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45230</v>
+        <v>45291</v>
       </c>
       <c r="B23">
-        <v>75729083</v>
+        <v>72562140</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>11.707148251017042</v>
+        <v>9.7241688934199377</v>
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45199</v>
+        <v>45260</v>
       </c>
       <c r="B24">
-        <v>70213668</v>
+        <v>71707878</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>10.441037185509771</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>10.648320361718856</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45169</v>
+        <v>45230</v>
       </c>
       <c r="B25">
-        <v>75366022</v>
+        <v>75729083</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>11.149065326684159</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>11.707148251017042</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45138</v>
+        <v>45199</v>
       </c>
       <c r="B26">
-        <v>79847051</v>
+        <v>70213668</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>12.335686284264202</v>
+        <v>10.441037185509771</v>
       </c>
       <c r="F26" s="4"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="B27">
-        <v>77156198</v>
+        <v>75366022</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>12.209408431381918</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>11.149065326684159</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45077</v>
+        <v>45138</v>
       </c>
       <c r="B28">
-        <v>74561756</v>
+        <v>79847051</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>10.363712247666435</v>
+        <v>12.335686284264202</v>
       </c>
       <c r="F28" s="4"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45046</v>
+        <v>45107</v>
       </c>
       <c r="B29">
-        <v>70216926</v>
+        <v>77156198</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>10.149733643083803</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>12.209408431381918</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="B30">
-        <v>71919462</v>
+        <v>74561756</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>12.53835635374374</v>
+        <v>10.363712247666435</v>
       </c>
       <c r="F30" s="4"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44985</v>
+        <v>45046</v>
       </c>
       <c r="B31">
-        <v>58361130</v>
+        <v>70216926</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>19.815805858300518</v>
+        <v>10.149733643083803</v>
       </c>
       <c r="F31" s="4"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44957</v>
+        <v>45016</v>
       </c>
       <c r="B32">
-        <v>60906882</v>
+        <v>71919462</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>31.844213335940186</v>
+        <v>12.53835635374374</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44926</v>
+        <v>44985</v>
       </c>
       <c r="B33">
-        <v>66131410</v>
+        <v>58361130</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>11.445680699849792</v>
+        <v>19.815805858300518</v>
       </c>
       <c r="F33" s="4"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44895</v>
+        <v>44957</v>
       </c>
       <c r="B34">
-        <v>64807019</v>
+        <v>60906882</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>11.731408234968054</v>
+        <v>31.844213335940186</v>
       </c>
       <c r="F34" s="4"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44865</v>
+        <v>44926</v>
       </c>
       <c r="B35">
-        <v>67792513</v>
+        <v>66131410</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>17.573713635771515</v>
+        <v>11.445680699849792</v>
       </c>
       <c r="F35" s="4"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="B36">
-        <v>63575705</v>
+        <v>64807019</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>24.018942042275061</v>
-      </c>
+        <v>11.731408234968054</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44804</v>
+        <v>44865</v>
       </c>
       <c r="B37">
-        <v>67806258</v>
+        <v>67792513</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>17.301882215248842</v>
-      </c>
+        <v>17.573713635771515</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44773</v>
+        <v>44834</v>
       </c>
       <c r="B38">
-        <v>71078972</v>
+        <v>63575705</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>11.345126542245509</v>
+        <v>24.018942042275061</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44742</v>
+        <v>44804</v>
       </c>
       <c r="B39">
-        <v>68760899</v>
+        <v>67806258</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>20.095830538964378</v>
+        <v>17.301882215248842</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44712</v>
+        <v>44773</v>
       </c>
       <c r="B40">
-        <v>67560029</v>
+        <v>71078972</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>34.311612229898046</v>
+        <v>11.345126542245509</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44681</v>
+        <v>44742</v>
       </c>
       <c r="B41">
-        <v>63746796</v>
+        <v>68760899</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>51.4628086655337</v>
+        <v>20.095830538964378</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44651</v>
+        <v>44712</v>
       </c>
       <c r="B42">
-        <v>63906622</v>
+        <v>67560029</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>67.537207101771884</v>
+        <v>34.311612229898046</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44620</v>
+        <v>44681</v>
       </c>
       <c r="B43">
-        <v>48709041</v>
+        <v>63746796</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>97.735367873171143</v>
+        <v>51.4628086655337</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="B44">
-        <v>46196098</v>
+        <v>63906622</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>85.353285718659151</v>
+        <v>67.537207101771884</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44561</v>
+        <v>44620</v>
       </c>
       <c r="B45">
-        <v>59339590</v>
+        <v>48709041</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>113.56654308346079</v>
+        <v>97.735367873171143</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44530</v>
+        <v>44592</v>
       </c>
       <c r="B46">
-        <v>58002508</v>
+        <v>46196098</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>121.21358781559425</v>
+        <v>85.353285718659151</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44500</v>
+        <v>44561</v>
       </c>
       <c r="B47">
-        <v>57659583</v>
+        <v>59339590</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>114.56472220849503</v>
+        <v>113.56654308346079</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44469</v>
+        <v>44530</v>
       </c>
       <c r="B48">
-        <v>51262899</v>
+        <v>58002508</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>125.88267719727439</v>
+        <v>121.21358781559425</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="B49">
-        <v>57804919</v>
+        <v>57659583</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>151.14877317312852</v>
+        <v>114.56472220849503</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44408</v>
+        <v>44469</v>
       </c>
       <c r="B50">
-        <v>63836626</v>
+        <v>51262899</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>190.93617993093272</v>
+        <v>125.88267719727439</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44377</v>
+        <v>44439</v>
       </c>
       <c r="B51">
-        <v>57255026</v>
+        <v>57804919</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>273.44543583420455</v>
+        <v>151.14877317312852</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="B52">
-        <v>50300959</v>
+        <v>63836626</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>541.44692108797528</v>
+        <v>190.93617993093272</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="B53">
-        <v>42087425</v>
+        <v>57255026</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>929.57588125369841</v>
+        <v>273.44543583420455</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44286</v>
+        <v>44347</v>
       </c>
       <c r="B54">
-        <v>38144734</v>
+        <v>50300959</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>2.7865882251368879</v>
+        <v>541.44692108797528</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="B55">
-        <v>24633449</v>
+        <v>42087425</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>-60.23002939853459</v>
+        <v>929.57588125369841</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="B56">
-        <v>24923269</v>
+        <v>38144734</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>-61.616722306135706</v>
+        <v>2.7865882251368879</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44196</v>
+        <v>44255</v>
       </c>
       <c r="B57">
-        <v>27785059</v>
+        <v>24633449</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>-61.983841614060999</v>
+        <v>-60.23002939853459</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44165</v>
+        <v>44227</v>
       </c>
       <c r="B58">
-        <v>26220138</v>
+        <v>24923269</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>-61.255031869120138</v>
+        <v>-61.616722306135706</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="B59">
-        <v>26872816</v>
+        <v>27785059</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>-62.687510152425475</v>
+        <v>-61.983841614060999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>44104</v>
+        <v>44165</v>
       </c>
       <c r="B60">
-        <v>22694480</v>
+        <v>26220138</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>-65.935801375969987</v>
+        <v>-61.255031869120138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="B61">
-        <v>23016206</v>
+        <v>26872816</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>-69.748883810046138</v>
+        <v>-62.687510152425475</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="B62">
-        <v>21941797</v>
+        <v>22694480</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>-72.169720159774315</v>
+        <v>-65.935801375969987</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>44012</v>
+        <v>44074</v>
       </c>
       <c r="B63">
-        <v>15331564</v>
+        <v>23016206</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>-79.955950733275245</v>
+        <v>-69.748883810046138</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="B64">
-        <v>7841796</v>
+        <v>21941797</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>-89.485728254540703</v>
+        <v>-72.169720159774315</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43951</v>
+        <v>44012</v>
       </c>
       <c r="B65">
-        <v>4087841</v>
+        <v>15331564</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="1"/>
-        <v>-94.139715897342811</v>
+        <v>-79.955950733275245</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43921</v>
+        <v>43982</v>
       </c>
       <c r="B66">
-        <v>37110614</v>
+        <v>7841796</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="1"/>
-        <v>-48.964132748214254</v>
+        <v>-89.485728254540703</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43890</v>
+        <v>43951</v>
       </c>
       <c r="B67">
-        <v>61939822</v>
+        <v>4087841</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="1"/>
-        <v>5.8157396222845659</v>
+        <v>-94.139715897342811</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43861</v>
+        <v>43921</v>
       </c>
       <c r="B68">
-        <v>64932623</v>
+        <v>37110614</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>5.2479606134050005</v>
+        <v>-48.964132748214254</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43830</v>
+        <v>43890</v>
       </c>
       <c r="B69">
-        <v>73087498</v>
+        <v>61939822</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8157396222845659</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43799</v>
+        <v>43861</v>
       </c>
       <c r="B70">
-        <v>67673660</v>
+        <v>64932623</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2479606134050005</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="B71">
-        <v>72020967</v>
-      </c>
-      <c r="C71"/>
+        <v>73087498</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43738</v>
+        <v>43799</v>
       </c>
       <c r="B72">
-        <v>66622674</v>
-      </c>
-      <c r="C72"/>
+        <v>67673660</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="B73">
-        <v>76083824</v>
+        <v>72020967</v>
       </c>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="B74">
-        <v>78841453</v>
+        <v>66622674</v>
       </c>
       <c r="C74"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43646</v>
+        <v>43708</v>
       </c>
       <c r="B75">
-        <v>76489355</v>
+        <v>76083824</v>
       </c>
       <c r="C75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43616</v>
+        <v>43677</v>
       </c>
       <c r="B76">
-        <v>74582398</v>
+        <v>78841453</v>
       </c>
       <c r="C76"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43585</v>
+        <v>43646</v>
       </c>
       <c r="B77">
-        <v>69754997</v>
+        <v>76489355</v>
       </c>
       <c r="C77"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="B78">
-        <v>72714771</v>
+        <v>74582398</v>
       </c>
       <c r="C78"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>43524</v>
+        <v>43585</v>
       </c>
       <c r="B79">
-        <v>58535547</v>
+        <v>69754997</v>
       </c>
       <c r="C79"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B80">
+        <v>72714771</v>
+      </c>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B81">
+        <v>58535547</v>
+      </c>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>43496</v>
       </c>
-      <c r="B80">
+      <c r="B82">
         <v>61694899</v>
       </c>
-      <c r="C80"/>
+      <c r="C82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tsa.xlsx
+++ b/data/tsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636090999323648/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DEA23F7A-EED5-4DD9-BDE0-3AEBA1B7C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738F189D-6EEE-4E06-8730-A3D51878B30B}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{DEA23F7A-EED5-4DD9-BDE0-3AEBA1B7C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008CAF92-1636-4978-9D56-A6C2BCA7B818}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +432,8 @@
         <v>71947622</v>
       </c>
       <c r="C2" s="1">
-        <f>(B2/B16-1)*100</f>
-        <v>-14.377647493155276</v>
+        <f>(B2/B14-1)*100</f>
+        <v>0.24719448361654184</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="5"/>
@@ -446,8 +446,8 @@
         <v>80304585</v>
       </c>
       <c r="C3" s="1">
-        <f>(B3/B16-1)*100</f>
-        <v>-4.4323176548368037</v>
+        <f t="shared" ref="C2:C6" si="0">(B3/B15-1)*100</f>
+        <v>1.0203834789048738</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3" s="5"/>
@@ -460,8 +460,8 @@
         <v>85069193</v>
       </c>
       <c r="C4" s="1">
-        <f>(B4/B17-1)*100</f>
-        <v>3.7285341809491168</v>
+        <f t="shared" si="0"/>
+        <v>1.2378759442363219</v>
       </c>
       <c r="F4" s="3"/>
       <c r="H4" s="5"/>
@@ -474,8 +474,8 @@
         <v>81310942</v>
       </c>
       <c r="C5" s="1">
-        <f>(B5/B18-1)*100</f>
-        <v>1.2376359942428472</v>
+        <f t="shared" si="0"/>
+        <v>-0.85406327373798163</v>
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="5"/>
@@ -488,7 +488,7 @@
         <v>79204590</v>
       </c>
       <c r="C6" s="1">
-        <f>(B6/B18-1)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.3849150647738395</v>
       </c>
       <c r="F6" s="3"/>
@@ -544,7 +544,7 @@
         <v>65735385</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:C20" si="0">(B10/B22-1)*100</f>
+        <f t="shared" ref="C10:C20" si="1">(B10/B22-1)*100</f>
         <v>1.9987637328812147</v>
       </c>
       <c r="F10" s="3"/>
@@ -558,7 +558,7 @@
         <v>77307984</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5403859367984429</v>
       </c>
       <c r="F11" s="3"/>
@@ -572,7 +572,7 @@
         <v>71869129</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22487208448700446</v>
       </c>
       <c r="F12" s="3"/>
@@ -586,7 +586,7 @@
         <v>76321249</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78195321604515033</v>
       </c>
       <c r="F13" s="3"/>
@@ -600,7 +600,7 @@
         <v>71770210</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2168646708501161</v>
       </c>
       <c r="F14" s="3"/>
@@ -614,7 +614,7 @@
         <v>79493447</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4765063757776788</v>
       </c>
       <c r="F15" s="3"/>
@@ -628,7 +628,7 @@
         <v>84029018</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.237472076457772</v>
       </c>
       <c r="F16" s="3"/>
@@ -642,7 +642,7 @@
         <v>82011371</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2926545447457016</v>
       </c>
       <c r="F17" s="3"/>
@@ -656,7 +656,7 @@
         <v>80316911</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7186419804812445</v>
       </c>
       <c r="F18" s="3"/>
@@ -670,7 +670,7 @@
         <v>73821334</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1332466476815108</v>
       </c>
       <c r="F19" s="3"/>
@@ -684,7 +684,7 @@
         <v>77167666</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2973348994184617</v>
       </c>
       <c r="F20" s="3"/>
@@ -698,7 +698,7 @@
         <v>64600292</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ref="C21:C70" si="1">(B21/B33-1)*100</f>
+        <f t="shared" ref="C21:C70" si="2">(B21/B33-1)*100</f>
         <v>10.690612056346405</v>
       </c>
       <c r="F21" s="3"/>
@@ -712,7 +712,7 @@
         <v>64447237</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8127339370286579</v>
       </c>
       <c r="F22" s="3"/>
@@ -726,7 +726,7 @@
         <v>72562140</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7241688934199377</v>
       </c>
       <c r="F23" s="3"/>
@@ -740,7 +740,7 @@
         <v>71707878</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.648320361718856</v>
       </c>
       <c r="F24" s="3"/>
@@ -754,7 +754,7 @@
         <v>75729083</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.707148251017042</v>
       </c>
       <c r="F25" s="3"/>
@@ -768,7 +768,7 @@
         <v>70213668</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.441037185509771</v>
       </c>
       <c r="F26" s="4"/>
@@ -782,7 +782,7 @@
         <v>75366022</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.149065326684159</v>
       </c>
       <c r="F27" s="4"/>
@@ -796,7 +796,7 @@
         <v>79847051</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.335686284264202</v>
       </c>
       <c r="F28" s="4"/>
@@ -810,7 +810,7 @@
         <v>77156198</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.209408431381918</v>
       </c>
       <c r="F29" s="3"/>
@@ -824,7 +824,7 @@
         <v>74561756</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.363712247666435</v>
       </c>
       <c r="F30" s="4"/>
@@ -838,7 +838,7 @@
         <v>70216926</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.149733643083803</v>
       </c>
       <c r="F31" s="4"/>
@@ -852,7 +852,7 @@
         <v>71919462</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.53835635374374</v>
       </c>
       <c r="F32" s="4"/>
@@ -866,7 +866,7 @@
         <v>58361130</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.815805858300518</v>
       </c>
       <c r="F33" s="4"/>
@@ -880,7 +880,7 @@
         <v>60906882</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.844213335940186</v>
       </c>
       <c r="F34" s="4"/>
@@ -894,7 +894,7 @@
         <v>66131410</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.445680699849792</v>
       </c>
       <c r="F35" s="4"/>
@@ -908,7 +908,7 @@
         <v>64807019</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.731408234968054</v>
       </c>
       <c r="F36" s="4"/>
@@ -922,7 +922,7 @@
         <v>67792513</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.573713635771515</v>
       </c>
       <c r="F37" s="4"/>
@@ -936,7 +936,7 @@
         <v>63575705</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.018942042275061</v>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>67806258</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.301882215248842</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>71078972</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.345126542245509</v>
       </c>
     </row>
@@ -972,7 +972,7 @@
         <v>68760899</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.095830538964378</v>
       </c>
     </row>
@@ -984,7 +984,7 @@
         <v>67560029</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.311612229898046</v>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>63746796</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.4628086655337</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>63906622</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.537207101771884</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>48709041</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97.735367873171143</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>46196098</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.353285718659151</v>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
         <v>59339590</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113.56654308346079</v>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
         <v>58002508</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121.21358781559425</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>57659583</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114.56472220849503</v>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
         <v>51262899</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.88267719727439</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>57804919</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151.14877317312852</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>63836626</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190.93617993093272</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>57255026</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273.44543583420455</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>50300959</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>541.44692108797528</v>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>42087425</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>929.57588125369841</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>38144734</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7865882251368879</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
         <v>24633449</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-60.23002939853459</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>24923269</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-61.616722306135706</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>27785059</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-61.983841614060999</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>26220138</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-61.255031869120138</v>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>26872816</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-62.687510152425475</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>22694480</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-65.935801375969987</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>23016206</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-69.748883810046138</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>21941797</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-72.169720159774315</v>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>15331564</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-79.955950733275245</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>7841796</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-89.485728254540703</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>4087841</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-94.139715897342811</v>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>37110614</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-48.964132748214254</v>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>61939822</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8157396222845659</v>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>64932623</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2479606134050005</v>
       </c>
     </row>
